--- a/Results/test.results/test.reaults.xlsx
+++ b/Results/test.results/test.reaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/Habitat_Geographic_Ranges/Results/test.results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A668F3-30BC-534F-A446-F4386BB6D24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE0C3CA-95E3-E148-A0AE-9D3F3359BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="500" windowWidth="14260" windowHeight="16480" xr2:uid="{820E995A-B765-6B4E-B1BD-4CA19FB17F20}"/>
+    <workbookView xWindow="14540" yWindow="500" windowWidth="14260" windowHeight="16480" xr2:uid="{820E995A-B765-6B4E-B1BD-4CA19FB17F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>Q. cocc R2 = 0</t>
   </si>
@@ -405,6 +405,69 @@
   </si>
   <si>
     <t>0.00007205108 (0.001)</t>
+  </si>
+  <si>
+    <t>microclim.dist.x.geo.dist.boot</t>
+  </si>
+  <si>
+    <t>intercept.SES</t>
+  </si>
+  <si>
+    <t>slope.SES</t>
+  </si>
+  <si>
+    <t>-1.044107 (0.142)</t>
+  </si>
+  <si>
+    <t>1.041943 (0.86)</t>
+  </si>
+  <si>
+    <t>-20.5311 (0.001)</t>
+  </si>
+  <si>
+    <t>20.36267 (1.00)</t>
+  </si>
+  <si>
+    <t>Null hypothesis is that there is no relationship between microclimate distance and geodistance</t>
+  </si>
+  <si>
+    <t>-40.33392 (0.001)</t>
+  </si>
+  <si>
+    <t>40.23006 (1.00)</t>
+  </si>
+  <si>
+    <t>-131.8361 (0.001)</t>
+  </si>
+  <si>
+    <t>131.4789 (1.00)</t>
+  </si>
+  <si>
+    <t>topo.dist.x.geo.dist.boot</t>
+  </si>
+  <si>
+    <t>6.368655 (1.00)</t>
+  </si>
+  <si>
+    <t>-6.359886 (0.001)</t>
+  </si>
+  <si>
+    <t>-2.605522 (0.01)</t>
+  </si>
+  <si>
+    <t>2.588549 (0.988)</t>
+  </si>
+  <si>
+    <t>-2.42344 (0.011)</t>
+  </si>
+  <si>
+    <t>2.410906 (0.989)</t>
+  </si>
+  <si>
+    <t>-8.906064 (0.001)</t>
+  </si>
+  <si>
+    <t>8.890147 (1.00)</t>
   </si>
 </sst>
 </file>
@@ -793,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FFE128-EB9C-6B4C-B42B-1E29713E16B9}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,6 +1382,87 @@
         <v>122</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
